--- a/DMSNewVSale_2025-10-23_13-25.xlsx
+++ b/DMSNewVSale_2025-10-23_13-25.xlsx
@@ -41,24 +41,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 500 MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
     <t>29.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -150,9 +162,6 @@
   </si>
   <si>
     <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>40.00</t>
@@ -965,13 +974,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -982,7 +991,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -998,24 +1007,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1024,14 +1033,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1048,7 +1057,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1064,7 +1073,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1074,14 +1083,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1090,31 +1099,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1123,31 +1132,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1156,14 +1165,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1173,14 +1182,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1189,14 +1198,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1206,14 +1215,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1246,7 +1255,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1255,7 +1264,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1272,14 +1281,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>11</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1295,7 +1304,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1305,14 +1314,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1321,14 +1330,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1345,7 +1354,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1361,13 +1370,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1378,7 +1387,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1394,13 +1403,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1411,7 +1420,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1427,13 +1436,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1444,7 +1453,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1460,13 +1469,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1477,7 +1486,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1493,24 +1502,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1519,68 +1528,101 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="26.25" customHeight="1">
-      <c r="N27" s="13">
-        <v>907.02499999999998</v>
-      </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>80</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>81</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>25</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>78</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>79</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>80</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>81</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="N28" s="13">
+        <v>919.02499999999998</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>82</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>83</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>84</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1689,10 +1731,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
